--- a/Data/Transitions/19541965Translation.xlsx
+++ b/Data/Transitions/19541965Translation.xlsx
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -1792,7 +1792,7 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
